--- a/src/test/java/dataEngine/DataEngine.xlsx
+++ b/src/test/java/dataEngine/DataEngine.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="TestCase" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Steps" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Cases" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>Test Case ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,12 +110,75 @@
   <si>
     <t>closeBrowser</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Page Object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn_MyAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtbx_UserName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtbx_Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn_Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn_Logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Runmode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_02</t>
+  </si>
+  <si>
+    <t>Login in online Store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Results</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Results</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -457,133 +521,218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="35.875" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.25" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="35.875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="17.375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.25" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
